--- a/server/users_data.xlsx
+++ b/server/users_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,81 +451,601 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>новый юзер</t>
+          <t>Булдакова Виктория</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8а</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0462349a69251ed3</t>
+          <t>68a52649aae6b7f8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>новый юзер</t>
+          <t>Зяпарова Дарья</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8а</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9758a7a0d7392075</t>
+          <t>5b0acc25414d6ce4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>новый юзер 2</t>
+          <t>Каракулова Елизавета</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5 А</t>
+          <t>8а</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>b300cf96fadb1ef0</t>
+          <t>6f96c6d37b0de273</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Каушнян Мария</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9d680d215c2dc44d</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>6</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>НОВЫЙ ЮЗЕР</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>c1523f638ce1acc7</t>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Малых Вероника</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>76178218b9aa6070</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Масленников Матвей</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6472053ba5d4b009</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Матвеева Анастасия</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>e04d28fedbf568a9</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Плетнева Софья</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fb5a5d1174891bca</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Пушкарева Александра</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8853dd1c2011ec71</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Светлякова Софья</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>64b4a3195a35af3a</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Филатова Яна</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>821dc24f21fd32c3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Черкашин Данил</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8b93f012298f1514</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Честненков Степан</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9f34523ccae5d222</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Чикуров Егор</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8а</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8723c9daf5004068</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Близняков Роман</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>76bc5347952a93a0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Боргенц Богдан</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>e465678bc82cf34b</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Иевлев Кирилл</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>b1576ba09410dd99</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Корепанова Анна</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>d929dd41b6adb4be</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Кузнецов Максим</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>bf16b6012ca22c3c</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Пятикопова Юлия</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5a0dd373f320400a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Решетников Ярослав</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>e5fbf98294291413</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Смирнов Владислав</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ddb6523931a8df6f</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Согрина Милана</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>e23170edcdc0fd06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Соковиков Даниил</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4b894ea8c923e6b3</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Строканев Илья</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>f174be2a862ed7d1</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Суслова Кира</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>f4855ddd5366b5bc</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Филиппов Максим</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>8д</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>e01aeb3e87bd8a74</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>12A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6559192ac5b286b4</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>новый юзер</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>d1f0c5bcf51981a2</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>test_user</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>a9c6cd185cb2d539</t>
         </is>
       </c>
     </row>
